--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>0.06499440578722415</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.495101507435406</v>
+        <v>-2.512730128085038</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07139101551705687</v>
+        <v>-0.07961546641314557</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1942764150085081</v>
+        <v>0.2015678951745062</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06307980172183079</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.693577524817353</v>
+        <v>-2.718289568780028</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1203975296884073</v>
+        <v>-0.1267618793166784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2481959910057664</v>
+        <v>0.2545559604897647</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06277154969610621</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.982941535858366</v>
+        <v>-3.010740851509268</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2176279722543812</v>
+        <v>-0.2293740591457417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2628548738384898</v>
+        <v>0.2683417345641246</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06317849056862831</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.19950608903858</v>
+        <v>-3.229553878749482</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3027195749925402</v>
+        <v>-0.3155212766536277</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2717451066640328</v>
+        <v>0.2817727169523938</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06297392283446034</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.248047577892977</v>
+        <v>-3.276740442975514</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3542081709184355</v>
+        <v>-0.3668361268567048</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3027930293172063</v>
+        <v>0.312759317585749</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.06149428094069739</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.032929932370853</v>
+        <v>-3.062209736785936</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4126305352280562</v>
+        <v>-0.4335033827356869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3001065408299343</v>
+        <v>0.3102859961197497</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.05866333074532249</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.679455209658038</v>
+        <v>-2.705085623869895</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5160063202086648</v>
+        <v>-0.5352774949605686</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2836766196629387</v>
+        <v>0.2894934512571189</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.0582852881339931</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.250428108409017</v>
+        <v>-2.277888692902828</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5180124262855733</v>
+        <v>-0.5334524348469328</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2815113683441211</v>
+        <v>0.2861075997343017</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.06687440520841362</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.870621418376665</v>
+        <v>-1.895948142585612</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5887736570114634</v>
+        <v>-0.609104826677367</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2962972753607535</v>
+        <v>0.3009971701653886</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.09407076429032922</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.366595296817891</v>
+        <v>-1.387951420243613</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7255334415906994</v>
+        <v>-0.7486547631583296</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3088463887021138</v>
+        <v>0.3121431772913856</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1458631904061524</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8195430180681287</v>
+        <v>-0.8496404494141206</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8876995229998377</v>
+        <v>-0.9080949347817413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3557562738149194</v>
+        <v>0.3590749631255548</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2250289986523026</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3163111626708093</v>
+        <v>-0.3510865881000726</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.191199719657029</v>
+        <v>-1.219517352380203</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3889577674021831</v>
+        <v>0.3922019942601823</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3256444193593261</v>
       </c>
       <c r="E14" t="n">
-        <v>0.281304041515212</v>
+        <v>0.2484412790850391</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.620177909295005</v>
+        <v>-1.648504302306724</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4878731054650657</v>
+        <v>0.4925715402216099</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4425583530072139</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8988547423345008</v>
+        <v>0.863908491278601</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.020923879023124</v>
+        <v>-2.048930521502935</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5720039965594067</v>
+        <v>0.5715148804489523</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5705050988632505</v>
       </c>
       <c r="E16" t="n">
-        <v>1.38450761871728</v>
+        <v>1.343525528853563</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.411512294182792</v>
+        <v>-2.443011371696056</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6921075525175563</v>
+        <v>0.6887728026779208</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7067502265574811</v>
       </c>
       <c r="E17" t="n">
-        <v>1.92509772461668</v>
+        <v>1.893179613301325</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.768678748493469</v>
+        <v>-2.799774852733643</v>
       </c>
       <c r="G17" t="n">
-        <v>0.807281986120798</v>
+        <v>0.8049984709066169</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8456003403718838</v>
       </c>
       <c r="E18" t="n">
-        <v>2.332232134766571</v>
+        <v>2.30522124508476</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.106671121250287</v>
+        <v>-3.133009658786235</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9406924203794895</v>
+        <v>0.9353179833568547</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9807279676767992</v>
       </c>
       <c r="E19" t="n">
-        <v>2.776018132142542</v>
+        <v>2.751901057776912</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.379197857706941</v>
+        <v>-3.403975603833707</v>
       </c>
       <c r="G19" t="n">
-        <v>1.115939072635079</v>
+        <v>1.107829965538172</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.106485296594234</v>
       </c>
       <c r="E20" t="n">
-        <v>3.086371794538459</v>
+        <v>3.071454483193645</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.651171235937141</v>
+        <v>-3.674397680967317</v>
       </c>
       <c r="G20" t="n">
-        <v>1.256614706194132</v>
+        <v>1.246673238743135</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.219003305006333</v>
       </c>
       <c r="E21" t="n">
-        <v>3.42036801567046</v>
+        <v>3.405535387114919</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.875778464026126</v>
+        <v>-3.899691861683074</v>
       </c>
       <c r="G21" t="n">
-        <v>1.374550090737282</v>
+        <v>1.366331480033557</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.31544102244332</v>
       </c>
       <c r="E22" t="n">
-        <v>3.735682921479285</v>
+        <v>3.721091200858743</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.042482374901809</v>
+        <v>-4.067303192447256</v>
       </c>
       <c r="G22" t="n">
-        <v>1.444200224865991</v>
+        <v>1.433260084520812</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.39294416864504</v>
       </c>
       <c r="E23" t="n">
-        <v>3.935303616564504</v>
+        <v>3.926988642686779</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.158023280575868</v>
+        <v>-4.176187008850818</v>
       </c>
       <c r="G23" t="n">
-        <v>1.528106268554332</v>
+        <v>1.520827928821152</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.451015282658401</v>
       </c>
       <c r="E24" t="n">
-        <v>4.093231178365734</v>
+        <v>4.081974207584828</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.222244225878534</v>
+        <v>-4.233762545267712</v>
       </c>
       <c r="G24" t="n">
-        <v>1.578637072932591</v>
+        <v>1.570335239487684</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.489173112382056</v>
       </c>
       <c r="E25" t="n">
-        <v>4.193314554901344</v>
+        <v>4.184871096791619</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.254171097482434</v>
+        <v>-4.261053764182977</v>
       </c>
       <c r="G25" t="n">
-        <v>1.594761844048587</v>
+        <v>1.58520728934168</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.508616491642027</v>
       </c>
       <c r="E26" t="n">
-        <v>4.222013260176245</v>
+        <v>4.212495206671611</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.169255430539229</v>
+        <v>-4.168667761182639</v>
       </c>
       <c r="G26" t="n">
-        <v>1.549919387032508</v>
+        <v>1.536437302961057</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.510051923311211</v>
       </c>
       <c r="E27" t="n">
-        <v>4.18151444623062</v>
+        <v>4.168395914133805</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.102305655354656</v>
+        <v>-4.097247318743703</v>
       </c>
       <c r="G27" t="n">
-        <v>1.523020921053697</v>
+        <v>1.513130555285881</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.494613589969028</v>
       </c>
       <c r="E28" t="n">
-        <v>4.134716984820813</v>
+        <v>4.121982445371908</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.937864088995837</v>
+        <v>-3.929744031538248</v>
       </c>
       <c r="G28" t="n">
-        <v>1.436032715845447</v>
+        <v>1.419431969051816</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.462862751634461</v>
       </c>
       <c r="E29" t="n">
-        <v>3.981492237920401</v>
+        <v>3.966205534408586</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.770536007561291</v>
+        <v>-3.761871352165793</v>
       </c>
       <c r="G29" t="n">
-        <v>1.333537339863657</v>
+        <v>1.317501631681206</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.416231320195767</v>
       </c>
       <c r="E30" t="n">
-        <v>3.882160786151609</v>
+        <v>3.864567206656159</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.609729230924788</v>
+        <v>-3.599332228469428</v>
       </c>
       <c r="G30" t="n">
-        <v>1.244153195738226</v>
+        <v>1.226006258016322</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.357418676750977</v>
       </c>
       <c r="E31" t="n">
-        <v>3.725195396042287</v>
+        <v>3.710510232343927</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.463506144644328</v>
+        <v>-3.449852504922195</v>
       </c>
       <c r="G31" t="n">
-        <v>1.147089198654616</v>
+        <v>1.12800783015453</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.290104508897573</v>
       </c>
       <c r="E32" t="n">
-        <v>3.566435606829239</v>
+        <v>3.553971176277151</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.275441730198651</v>
+        <v>-3.25331470138093</v>
       </c>
       <c r="G32" t="n">
-        <v>1.032421401738919</v>
+        <v>1.01423358267047</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.218611060069245</v>
       </c>
       <c r="E33" t="n">
-        <v>3.387146081409924</v>
+        <v>3.374177934266473</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.133033749579735</v>
+        <v>-3.108330465905605</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9791223461802974</v>
+        <v>0.9633582069427562</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.145554609889492</v>
       </c>
       <c r="E34" t="n">
-        <v>3.194349651101612</v>
+        <v>3.187177894879068</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.11595483703633</v>
+        <v>-3.096066061941972</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8851346704242318</v>
+        <v>0.8694639742645087</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.074045143424697</v>
       </c>
       <c r="E35" t="n">
-        <v>2.89740361032451</v>
+        <v>2.898100053263873</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.998591791344816</v>
+        <v>-2.978590592547458</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8362478801963358</v>
+        <v>0.8198719808087038</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.004273649046177</v>
       </c>
       <c r="E36" t="n">
-        <v>2.609673393097223</v>
+        <v>2.604878595166679</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.941649185775332</v>
+        <v>-2.920746407281837</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7702697670162626</v>
+        <v>0.7563905498640845</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9376813643377844</v>
       </c>
       <c r="E37" t="n">
-        <v>2.350075382485566</v>
+        <v>2.340897520186114</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.87489505703494</v>
+        <v>-2.857250375856309</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7216253447714575</v>
+        <v>0.7123613396346418</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8735288905543083</v>
       </c>
       <c r="E38" t="n">
-        <v>2.042184821219012</v>
+        <v>2.031421346692833</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.799402540470461</v>
+        <v>-2.781912624389466</v>
       </c>
       <c r="G38" t="n">
-        <v>0.645624001447296</v>
+        <v>0.6343933115320264</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8127638103604736</v>
       </c>
       <c r="E39" t="n">
-        <v>1.757758692821452</v>
+        <v>1.748396864462545</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.677424282763584</v>
+        <v>-2.654858509494545</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6208484453926664</v>
+        <v>0.6128269411812139</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7537883763138118</v>
       </c>
       <c r="E40" t="n">
-        <v>1.521477650221606</v>
+        <v>1.516882878879517</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.55867857152998</v>
+        <v>-2.536135429006349</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5480577478204132</v>
+        <v>0.5386988395576884</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6963680859940071</v>
       </c>
       <c r="E41" t="n">
-        <v>1.276446539412945</v>
+        <v>1.267370880479856</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.44489775382951</v>
+        <v>-2.422066981831971</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4851063143327937</v>
+        <v>0.4762146214591597</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.639210094928074</v>
       </c>
       <c r="E42" t="n">
-        <v>1.062691118759639</v>
+        <v>1.054760137529823</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.326839725246724</v>
+        <v>-2.302097750298185</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4172272185383574</v>
+        <v>0.4107592054956318</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5829327969036309</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8600495841743294</v>
+        <v>0.8534092854568767</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.223190911273115</v>
+        <v>-2.200623677955985</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3615147034854633</v>
+        <v>0.3558832979988284</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5282248632956645</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6975914931470094</v>
+        <v>0.6905350807236477</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.161136677337359</v>
+        <v>-2.138666537218274</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2726590967689417</v>
+        <v>0.2654946407868526</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.47622115229791</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5188830668678756</v>
+        <v>0.5110338483311504</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.056486270373387</v>
+        <v>-2.031894680378212</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2401409056882231</v>
+        <v>0.2338553986568612</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4267967367436223</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3507979504981934</v>
+        <v>0.3409732868944688</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.983014460366725</v>
+        <v>-1.959524476656141</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2153025675656843</v>
+        <v>0.2057319523297778</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.379514425405912</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1772975157593309</v>
+        <v>0.1688642779862423</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.924097139754287</v>
+        <v>-1.897016897788158</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1456173922827939</v>
+        <v>0.1380631034604324</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3342018936758785</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05252910615072803</v>
+        <v>0.04720869090745674</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.874348921152755</v>
+        <v>-1.849409839711943</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1326185841294338</v>
+        <v>0.1248058667949814</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2902206166946349</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08119961859178151</v>
+        <v>-0.08761945004750706</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.800428876382183</v>
+        <v>-1.772764615179691</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08102486474099312</v>
+        <v>0.07216967306963186</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2484200959813554</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.186527487869935</v>
+        <v>-0.1919428062391154</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.777772580131508</v>
+        <v>-1.74983455991197</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04492955583754826</v>
+        <v>0.03510635228191453</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.209203899150575</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2997016555886319</v>
+        <v>-0.299844740301541</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.723454411005432</v>
+        <v>-1.694456395871894</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04159188590173098</v>
+        <v>0.02950414775709785</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1741132735108312</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3550564588592534</v>
+        <v>-0.3578334703281618</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.715873841317433</v>
+        <v>-1.687839457923896</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02176106081088838</v>
+        <v>-0.0317010682137948</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1436402711955007</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4561195276638627</v>
+        <v>-0.4617699137756793</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.708449496775163</v>
+        <v>-1.681304282668988</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02525203579625108</v>
+        <v>-0.03368381352124881</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1190488823639803</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4905241008780352</v>
+        <v>-0.5023694710395775</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.694973252896075</v>
+        <v>-1.668171150091264</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06024208829487804</v>
+        <v>-0.06947835251796647</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1004746292003188</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6112905186694574</v>
+        <v>-0.6260005031853625</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.673421483026172</v>
+        <v>-1.651113408245178</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08477381631832601</v>
+        <v>-0.09184628927068775</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0879369215858543</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6944125165329805</v>
+        <v>-0.7093006269159765</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.636654552000909</v>
+        <v>-1.618154282641005</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1059357533479567</v>
+        <v>-0.1137207297686819</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08055351364493468</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.822544876943037</v>
+        <v>-0.8386448272414873</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.675607175018262</v>
+        <v>-1.655056998138722</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1073417796595018</v>
+        <v>-0.116373637149863</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07739797922893729</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8936857201725633</v>
+        <v>-0.9100061377327407</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.647334803785906</v>
+        <v>-1.63167432796282</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1499372226636722</v>
+        <v>-0.1570023953755793</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.07738110239065552</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.010889620622168</v>
+        <v>-1.024546910464528</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.659656149625085</v>
+        <v>-1.641758880126726</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1725300068223934</v>
+        <v>-0.1801426975683913</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07995327770406703</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.048701946080522</v>
+        <v>-1.066334946874426</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.657851530184722</v>
+        <v>-1.637102786764818</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1853623694933899</v>
+        <v>-0.1921223921542972</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08411680651962249</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.131272045765681</v>
+        <v>-1.150465837968767</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.701911401424073</v>
+        <v>-1.684298841303442</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2444315351072831</v>
+        <v>-0.2526180247530082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.08916539253993949</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.18581944244203</v>
+        <v>-1.202091678415208</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.705416976890345</v>
+        <v>-1.68836069509235</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2904376504518162</v>
+        <v>-0.2972984164309962</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.09432945640333029</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.257052268701284</v>
+        <v>-1.269042183623826</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.753744568699423</v>
+        <v>-1.735693994151519</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3084531838455387</v>
+        <v>-0.3153738117964459</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.09905358531245212</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.326508216433902</v>
+        <v>-1.335976628303445</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.786264949852278</v>
+        <v>-1.765971011412693</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3546870666922535</v>
+        <v>-0.3615376123347971</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1030645665498449</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.343805406166897</v>
+        <v>-1.353120512986895</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.871601110645664</v>
+        <v>-1.851829869422624</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3512807744961635</v>
+        <v>-0.3576276035473436</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1066828993740389</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.371216349025617</v>
+        <v>-1.379360497276706</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.980260079643226</v>
+        <v>-1.963345422510049</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3823739586401552</v>
+        <v>-0.3878272382596992</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1102452465293559</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.414074600686151</v>
+        <v>-1.420846303731785</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.054835686006615</v>
+        <v>-2.034833027161166</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.355238964870617</v>
+        <v>-0.3627421520097968</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1145770433642213</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.442097303694962</v>
+        <v>-1.450751008729777</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.167987222979903</v>
+        <v>-2.149378910061272</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4183393232635091</v>
+        <v>-0.4293174248590517</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1200297689205486</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.440783260413144</v>
+        <v>-1.449125975204596</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.312731280544273</v>
+        <v>-2.295672078650096</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4367928710845042</v>
+        <v>-0.4511320033853186</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1270760561469022</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.463011032549138</v>
+        <v>-1.47731512369577</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.435740332203331</v>
+        <v>-2.422388192411971</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4533819374934088</v>
+        <v>-0.4640534289898605</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1354215335924853</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.497618552447947</v>
+        <v>-1.512782611920124</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.596227358307925</v>
+        <v>-2.588421941213927</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5124379626744839</v>
+        <v>-0.5245300809633897</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1450932897261051</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.502169522347309</v>
+        <v>-1.522519672638394</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.692148867760399</v>
+        <v>-2.686886854440764</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.53020236779657</v>
+        <v>-0.5439633210533845</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1551637024149917</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.484437238283223</v>
+        <v>-1.506431402724671</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.810268218363003</v>
+        <v>-2.80849571998064</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5355870251558413</v>
+        <v>-0.5553502361143815</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1644995040082721</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.536366768732573</v>
+        <v>-1.560491143338657</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.943219467497104</v>
+        <v>-2.94596143781183</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5448743910621116</v>
+        <v>-0.5661896331412877</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.172039975068341</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.411680121817061</v>
+        <v>-1.437575534757417</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.001887849910043</v>
+        <v>-3.007969680232723</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5798264823103749</v>
+        <v>-0.6011504846780964</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1769381624364567</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.306885170092089</v>
+        <v>-1.334681565646809</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.061880495941436</v>
+        <v>-3.070377975830525</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.571813738387468</v>
+        <v>-0.5914908065086445</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1789974234570005</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.194024912712937</v>
+        <v>-1.222136678655293</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.136318857784279</v>
+        <v>-3.147875138423822</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5428434641676575</v>
+        <v>-0.566615967183833</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1786175878624362</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.058488648433883</v>
+        <v>-1.089924943879238</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.194080550332764</v>
+        <v>-3.208985451268805</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.552240333680746</v>
+        <v>-0.5787548070116479</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1763065975475075</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8574429464119367</v>
+        <v>-0.8896589075378372</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.25758972219111</v>
+        <v>-3.272453011756561</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5512124598247462</v>
+        <v>-0.5758201103489214</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1729825780078072</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6451899152441756</v>
+        <v>-0.6826795700744381</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.292539623367237</v>
+        <v>-3.31363220811255</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5132701900863018</v>
+        <v>-0.5408344379945672</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.169721718967826</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3971642458010603</v>
+        <v>-0.4309628990575058</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.336187761044953</v>
+        <v>-3.362245969347446</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4757133730438574</v>
+        <v>-0.5019343767084867</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1669933549107814</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1262800634466785</v>
+        <v>-0.1672008312905766</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.280055482165923</v>
+        <v>-3.309701758651824</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4383697230226856</v>
+        <v>-0.4617202721405884</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1657949265801079</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1540024484688826</v>
+        <v>0.1212360492127096</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.270200157552289</v>
+        <v>-3.305980096068097</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4210418722797812</v>
+        <v>-0.4429717946052298</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1662168074311132</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4759751735722507</v>
+        <v>0.4441037837958047</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.221829494324529</v>
+        <v>-3.255059458849566</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.372974169030885</v>
+        <v>-0.3953435658316972</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.168413875075387</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7512161394299041</v>
+        <v>0.7247527677821839</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.131037133815417</v>
+        <v>-3.173792452085542</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3304254475656237</v>
+        <v>-0.3526240187397995</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1717864613780423</v>
       </c>
       <c r="E86" t="n">
-        <v>1.004870294263472</v>
+        <v>0.9797136656571155</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.042343592436986</v>
+        <v>-3.087134947769883</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.256587895512189</v>
+        <v>-0.2772767769603652</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1755520966758768</v>
       </c>
       <c r="E87" t="n">
-        <v>1.192376970338422</v>
+        <v>1.170414926954973</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.920958114255019</v>
+        <v>-2.971567031206142</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2202940200683805</v>
+        <v>-0.2416983250811021</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1786271130342245</v>
       </c>
       <c r="E88" t="n">
-        <v>1.355116850647287</v>
+        <v>1.338323377505656</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.687719811876627</v>
+        <v>-2.738975530132022</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2177184952360176</v>
+        <v>-0.2394045895302845</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1794927764283861</v>
       </c>
       <c r="E89" t="n">
-        <v>1.496532728588431</v>
+        <v>1.479476446790436</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.455621807057235</v>
+        <v>-2.504761915628904</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.148228966397309</v>
+        <v>-0.169369002705576</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1758437785510904</v>
       </c>
       <c r="E90" t="n">
-        <v>1.612654733402673</v>
+        <v>1.604260916928039</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.175867102526537</v>
+        <v>-2.224215135008888</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1470244267223093</v>
+        <v>-0.1621359244632143</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1644997748481607</v>
       </c>
       <c r="E91" t="n">
-        <v>1.655562626698298</v>
+        <v>1.644721769623301</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.890305786738296</v>
+        <v>-1.936199478379829</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08309330096569009</v>
+        <v>-0.09407432265741442</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1441702432788866</v>
       </c>
       <c r="E92" t="n">
-        <v>1.625241807994397</v>
+        <v>1.611729062913037</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.538551000676572</v>
+        <v>-1.577680289512925</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09421010712986892</v>
+        <v>-0.1051371070422296</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1136375560752177</v>
       </c>
       <c r="E93" t="n">
-        <v>1.655610808285298</v>
+        <v>1.64313031720421</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.205270203109116</v>
+        <v>-1.240314277387107</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1229672143284067</v>
+        <v>-0.1340723401078582</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07482330541652255</v>
       </c>
       <c r="E94" t="n">
-        <v>1.613066466964309</v>
+        <v>1.594134023369496</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9630277841540902</v>
+        <v>-0.9887830324777196</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1284350944288597</v>
+        <v>-0.138456864524857</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03097836743503897</v>
       </c>
       <c r="E95" t="n">
-        <v>1.60559686093122</v>
+        <v>1.585077345061589</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.671777390979623</v>
+        <v>-0.6896133384581636</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1853477690124808</v>
+        <v>-0.1955097037252053</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01364138066079542</v>
       </c>
       <c r="E96" t="n">
-        <v>1.51304879259279</v>
+        <v>1.485820355745434</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3996463275556051</v>
+        <v>-0.4093103858693298</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2137734452943823</v>
+        <v>-0.2216153635906529</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05445077241401065</v>
       </c>
       <c r="E97" t="n">
-        <v>1.397531247688185</v>
+        <v>1.368295244715829</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2008330390646585</v>
+        <v>-0.2017411889772037</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.315036540687446</v>
+        <v>-0.3243896087578071</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08811014689845591</v>
       </c>
       <c r="E98" t="n">
-        <v>1.322277448986569</v>
+        <v>1.294824164733213</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04232291807515558</v>
+        <v>-0.04092857214833778</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.316124276515173</v>
+        <v>-0.328501104181806</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1130593966233346</v>
       </c>
       <c r="E99" t="n">
-        <v>1.174095708192154</v>
+        <v>1.144002656990435</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07074028598863223</v>
+        <v>0.07637899171572163</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3271841408038064</v>
+        <v>-0.3406939657889845</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1317051667124269</v>
       </c>
       <c r="E100" t="n">
-        <v>1.014551873154288</v>
+        <v>0.9811532730747514</v>
       </c>
       <c r="F100" t="n">
-        <v>0.161432633203517</v>
+        <v>0.1712134953645144</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3643686455830691</v>
+        <v>-0.3782770636970654</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1459440809915746</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8585340542559662</v>
+        <v>0.8183914920445224</v>
       </c>
       <c r="F101" t="n">
-        <v>0.210878621850231</v>
+        <v>0.2196330702033195</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3284149613444424</v>
+        <v>-0.3442900642368927</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1597161031891308</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7552210513432667</v>
+        <v>0.7183796578653674</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2297920848198623</v>
+        <v>0.2374923784513147</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3451602528990743</v>
+        <v>-0.3585956154316161</v>
       </c>
     </row>
   </sheetData>
